--- a/Automation_Testing/src/test/resources/DemoSheet.xlsx
+++ b/Automation_Testing/src/test/resources/DemoSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pratibha.bhawan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874BCD07-370F-4414-90C5-BB70914FEAC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42FE081-A7B7-447D-9B72-A2A95B03F697}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="2175" windowWidth="15375" windowHeight="7875" xr2:uid="{F6B1B02D-F049-438A-8573-BA93232C2D02}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F6B1B02D-F049-438A-8573-BA93232C2D02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -130,13 +130,22 @@
   </si>
   <si>
     <t>BIL</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>op</t>
+  </si>
+  <si>
+    <t>34r</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +157,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,9 +191,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -492,103 +510,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F1E92F-9715-41F3-8467-325060BC2F2F}">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>369</v>
+        <v>5879</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
@@ -648,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s">
         <v>22</v>
@@ -671,13 +691,13 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>456</v>
+        <v>5880</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="b">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -731,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="V3" t="s">
         <v>22</v>
@@ -749,6 +769,172 @@
         <v>22</v>
       </c>
       <c r="AA3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5881</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5882</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -756,7 +942,10 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{1AC17EE6-F11F-4317-80BC-43697EFA32BD}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{8920F4EC-12A5-4491-9E3D-4147FB54CBB1}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{31351218-9A28-4D00-AD64-42356A1241B3}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{EE64DDBB-B258-4FAB-939E-17CD3DCD54B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Automation_Testing/src/test/resources/DemoSheet.xlsx
+++ b/Automation_Testing/src/test/resources/DemoSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pratibha.bhawan\Desktop\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -139,13 +139,23 @@
   </si>
   <si>
     <t>34r</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,9 +528,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="18.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -605,6 +615,15 @@
       <c r="AA1" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="AB1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -688,6 +707,15 @@
       <c r="AA2" t="s">
         <v>22</v>
       </c>
+      <c r="AB2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -771,6 +799,15 @@
       <c r="AA3" t="s">
         <v>22</v>
       </c>
+      <c r="AB3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -854,6 +891,15 @@
       <c r="AA4" t="s">
         <v>22</v>
       </c>
+      <c r="AB4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -936,6 +982,15 @@
       </c>
       <c r="AA5" t="s">
         <v>22</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
